--- a/甘特圖.xlsx
+++ b/甘特圖.xlsx
@@ -9,11 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="甘特圖" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,26 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>任務名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>開始時間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>結束時間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>持續時間</t>
-  </si>
-  <si>
-    <t>主題尋找及訂定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>時間</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -582,10 +562,100 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -593,96 +663,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1020,49 +1000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="36.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection sqref="A1:N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1072,274 +1013,269 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="34"/>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="I2" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="2" t="s">
+      <c r="M2" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16"/>
+      <c r="N3" s="26"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="29"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="N4" s="27"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="22" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
+      <c r="N5" s="27"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="31"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="N6" s="27"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="16"/>
+      <c r="N7" s="27"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="31"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
+      <c r="N8" s="27"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H9" s="2"/>
+      <c r="N9" s="27"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="31"/>
+      <c r="H10" s="3"/>
+      <c r="N10" s="27"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="H11" s="2"/>
+      <c r="N11" s="27"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="30"/>
+      <c r="H12" s="3"/>
+      <c r="N12" s="27"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="22" t="s">
+      <c r="I13" s="2"/>
+      <c r="N13" s="27"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="30"/>
+      <c r="I14" s="3"/>
+      <c r="N14" s="27"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="23"/>
+      <c r="N15" s="27"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="30"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="20"/>
+      <c r="N16" s="27"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="13"/>
+      <c r="K17" s="16"/>
+      <c r="N17" s="27"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="30"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="20"/>
+      <c r="N18" s="27"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="J19" s="13"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="30"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="20"/>
+      <c r="N20" s="27"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
-      <c r="N3" s="32"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
-      <c r="N4" s="33"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19"/>
-      <c r="N5" s="33"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15"/>
-      <c r="N6" s="33"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="J21" s="5"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="30"/>
+      <c r="K22" s="24"/>
+      <c r="N22" s="27"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="19"/>
-      <c r="N7" s="33"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="26"/>
-      <c r="N8" s="33"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="N9" s="33"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="H10" s="6"/>
-      <c r="N10" s="33"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="N11" s="33"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
-      <c r="H12" s="6"/>
-      <c r="N12" s="33"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="5"/>
-      <c r="N13" s="33"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
-      <c r="I14" s="6"/>
-      <c r="N14" s="33"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+      <c r="K23" s="5"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="30"/>
+      <c r="N24" s="27"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="29"/>
-      <c r="N15" s="33"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="26"/>
-      <c r="N16" s="33"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" s="16"/>
-      <c r="K17" s="19"/>
-      <c r="N17" s="33"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="26"/>
-      <c r="N18" s="33"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19" s="16"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="7"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="26"/>
-      <c r="N20" s="33"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" s="8"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="7"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
-      <c r="K22" s="30"/>
-      <c r="N22" s="33"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="K23" s="8"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="7"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="24"/>
-      <c r="N24" s="33"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="I25" s="16"/>
-      <c r="J25" s="19"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="33"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="16"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="27"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="24"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="34"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
     <mergeCell ref="F1:N1"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
@@ -1350,6 +1286,11 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/甘特圖.xlsx
+++ b/甘特圖.xlsx
@@ -79,18 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>研究mediapipe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mediapipe姿勢偵測</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>關節角度計算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6月</t>
   </si>
   <si>
@@ -126,6 +114,17 @@
   </si>
   <si>
     <t>8月</t>
+  </si>
+  <si>
+    <t>AI健身實時偵測</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI人臉辨識</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月</t>
   </si>
 </sst>
 </file>
@@ -169,7 +168,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -552,25 +551,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -646,15 +663,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -663,6 +680,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1000,42 +1035,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N26"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="14" width="8.77734375" customWidth="1"/>
+    <col min="2" max="15" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="38"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1045,252 +1081,271 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="24"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="28"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="25"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="14"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="25"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="27"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="25"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="14"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="25"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="27"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="25"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="14"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="25"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="27"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="18"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="25"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="14"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="25"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="29"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="18"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="25"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="G13" s="11"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="21"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="25"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="29"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="25"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
-      <c r="N3" s="26"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="29"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-      <c r="N4" s="27"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16"/>
-      <c r="N5" s="27"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
-      <c r="N6" s="27"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
+      <c r="J15" s="11"/>
+      <c r="K15" s="21"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="25"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="29"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="36"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="25"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="16"/>
-      <c r="N7" s="27"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20"/>
-      <c r="N8" s="27"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="N9" s="27"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
-      <c r="H10" s="3"/>
-      <c r="N10" s="27"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="N11" s="27"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
-      <c r="H12" s="3"/>
-      <c r="N12" s="27"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="N13" s="27"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
-      <c r="I14" s="3"/>
-      <c r="N14" s="27"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="29" t="s">
+      <c r="J17" s="11"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="29"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="25"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="23"/>
-      <c r="N15" s="27"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="20"/>
-      <c r="N16" s="27"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
+      <c r="J19" s="3"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="29"/>
+      <c r="K20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="25"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="13"/>
-      <c r="K17" s="16"/>
-      <c r="N17" s="27"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="20"/>
-      <c r="N18" s="27"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="29" t="s">
+      <c r="K21" s="3"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="29"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="25"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="13"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="4"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="20"/>
-      <c r="N20" s="27"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="4"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
-      <c r="K22" s="24"/>
-      <c r="N22" s="27"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="K23" s="5"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="4"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
-      <c r="N24" s="27"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="I25" s="13"/>
-      <c r="J25" s="16"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="27"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="28"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="25"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="29"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="F1:N1"/>
+  <mergeCells count="14">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
     <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A7:A8"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="F1:O1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/甘特圖.xlsx
+++ b/甘特圖.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>時間</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,6 +125,10 @@
   </si>
   <si>
     <t>10月</t>
+  </si>
+  <si>
+    <t>GPT問答</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -581,7 +585,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -663,15 +667,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -687,16 +700,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1035,10 +1042,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection sqref="A1:O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1048,30 +1055,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="33" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
       <c r="O1" s="38"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
+      <c r="A2" s="35"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1116,27 +1123,27 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="12"/>
       <c r="D3" s="13"/>
       <c r="E3" s="14"/>
-      <c r="N3" s="35"/>
+      <c r="N3" s="27"/>
       <c r="O3" s="24"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
       <c r="E4" s="10"/>
-      <c r="N4" s="36"/>
+      <c r="N4" s="28"/>
       <c r="O4" s="25"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="32" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="5"/>
@@ -1144,20 +1151,20 @@
       <c r="E5" s="12"/>
       <c r="F5" s="13"/>
       <c r="G5" s="14"/>
-      <c r="N5" s="36"/>
+      <c r="N5" s="28"/>
       <c r="O5" s="25"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
+      <c r="A6" s="32"/>
       <c r="D6" s="7"/>
       <c r="E6" s="8"/>
       <c r="F6" s="9"/>
       <c r="G6" s="10"/>
-      <c r="N6" s="36"/>
+      <c r="N6" s="28"/>
       <c r="O6" s="25"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="32" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="11"/>
@@ -1165,115 +1172,111 @@
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="14"/>
-      <c r="N7" s="36"/>
+      <c r="N7" s="28"/>
       <c r="O7" s="25"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
+      <c r="A8" s="32"/>
       <c r="D8" s="19"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
       <c r="H8" s="18"/>
-      <c r="N8" s="36"/>
+      <c r="N8" s="28"/>
       <c r="O8" s="25"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="32" t="s">
         <v>25</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="12"/>
       <c r="J9" s="14"/>
-      <c r="N9" s="36"/>
+      <c r="N9" s="28"/>
       <c r="O9" s="25"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
+      <c r="A10" s="32"/>
       <c r="H10" s="19"/>
       <c r="I10" s="17"/>
       <c r="J10" s="18"/>
-      <c r="N10" s="36"/>
+      <c r="N10" s="28"/>
       <c r="O10" s="25"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="30" t="s">
         <v>26</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="14"/>
-      <c r="N11" s="36"/>
+      <c r="N11" s="28"/>
       <c r="O11" s="25"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
+      <c r="A12" s="31"/>
       <c r="H12" s="19"/>
       <c r="I12" s="18"/>
-      <c r="N12" s="36"/>
+      <c r="N12" s="28"/>
       <c r="O12" s="25"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="21"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="38"/>
+      <c r="O14" s="24"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="21"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="25"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="29"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="25"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="28" t="s">
+      <c r="G15" s="11"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="21"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="25"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="31"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="25"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="11"/>
-      <c r="K15" s="21"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="25"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="36"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="25"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
+      <c r="J17" s="11"/>
+      <c r="K17" s="21"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="25"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="31"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="28"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="25"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="11"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="2"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="25"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" s="3"/>
+      <c r="J19" s="11"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="4"/>
@@ -1281,71 +1284,90 @@
       <c r="O19" s="2"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
-      <c r="K20" s="36"/>
-      <c r="N20" s="36"/>
+      <c r="A20" s="31"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="28"/>
+      <c r="N20" s="28"/>
       <c r="O20" s="25"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="4"/>
+      <c r="A21" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
-      <c r="N22" s="36"/>
+      <c r="A22" s="31"/>
+      <c r="K22" s="28"/>
+      <c r="N22" s="28"/>
       <c r="O22" s="25"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="31"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="25"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="I23" s="11"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="25"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="26"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="25"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="31"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="F1:O1"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="F1:O1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/甘特圖.xlsx
+++ b/甘特圖.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>時間</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,18 +116,31 @@
     <t>8月</t>
   </si>
   <si>
+    <t>AI人臉辨識</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月</t>
+  </si>
+  <si>
+    <t>1月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智慧問答</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>AI健身實時偵測</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AI人臉辨識</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10月</t>
-  </si>
-  <si>
-    <t>GPT問答</t>
+    <t>眼球動態追蹤
+注意力偵測</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -172,7 +185,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -341,9 +354,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color theme="2" tint="-9.9978637043366805E-2"/>
       </right>
@@ -356,91 +367,11 @@
     <border>
       <left/>
       <right style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,21 +426,6 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
         <color theme="2" tint="-9.9978637043366805E-2"/>
       </right>
       <top style="thin">
@@ -566,17 +482,61 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -585,7 +545,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -607,74 +567,47 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -694,16 +627,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1042,43 +1011,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:O26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="15" width="8.77734375" customWidth="1"/>
+    <col min="2" max="18" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="36" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="38"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="26"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1088,286 +1062,359 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="24"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="30"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="25"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="33"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="19"/>
+      <c r="R3" s="15"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="21"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="39"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="R4" s="16"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="25"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="32"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="25"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="D5" s="37"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="33"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="R5" s="16"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="23"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="39"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="R6" s="16"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="14"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="25"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="32"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="25"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
+      <c r="D7" s="37"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="33"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="R7" s="16"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="23"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="R8" s="16"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="37"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="33"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="33"/>
+      <c r="R9" s="16"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="23"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="39"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="39"/>
+      <c r="R10" s="16"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="37"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="19"/>
+      <c r="R11" s="16"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="22"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="19"/>
+      <c r="R12" s="16"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="14"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="25"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="32"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="18"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="25"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="14"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="25"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="18"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="25"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="21"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="38"/>
-      <c r="O14" s="24"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
+      <c r="H13" s="37"/>
+      <c r="I13" s="33"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="33"/>
+      <c r="R13" s="16"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="42"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="39"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="39"/>
+      <c r="R14" s="16"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="37"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="27"/>
+      <c r="R15" s="16"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="23"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="39"/>
+      <c r="R16" s="16"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="21"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="25"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="25"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="30" t="s">
+      <c r="G17" s="37"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="13"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="R17" s="16"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="22"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="R18" s="16"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="11"/>
-      <c r="K17" s="21"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="25"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="28"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="25"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="30" t="s">
+      <c r="J19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="19"/>
+      <c r="R19" s="16"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="22"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="19"/>
+      <c r="R20" s="16"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="11"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="2"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="25"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" s="3"/>
+      <c r="J21" s="31"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
+      <c r="N21" s="29"/>
       <c r="O21" s="2"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="31"/>
-      <c r="K22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="25"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="30" t="s">
+      <c r="R21" s="16"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="22"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="36"/>
+      <c r="R22" s="16"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="33"/>
+      <c r="R23" s="16"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" s="22"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="39"/>
+      <c r="R24" s="16"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="2"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="31"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="25"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="30" t="s">
+      <c r="K25" s="3"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="13"/>
+      <c r="R25" s="16"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" s="22"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="10"/>
+      <c r="R26" s="16"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I25" s="11"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="25"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="31"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="26"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="13"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" s="22"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="F1:O1"/>
-    <mergeCell ref="A25:A26"/>
+  <mergeCells count="16">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="F1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/甘特圖.xlsx
+++ b/甘特圖.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="甘特圖" sheetId="2" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -545,7 +546,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -609,15 +610,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -626,54 +672,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -745,6 +743,66 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11597640" cy="5768340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1013,8 +1071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1024,35 +1082,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23" t="s">
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
       <c r="R1" s="20" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
+      <c r="A2" s="41"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1106,255 +1164,255 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="33"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="26"/>
       <c r="N3" s="18"/>
       <c r="O3" s="19"/>
       <c r="R3" s="15"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="39"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="32"/>
       <c r="N4" s="19"/>
       <c r="O4" s="19"/>
       <c r="R4" s="16"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="37" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="33"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="26"/>
       <c r="N5" s="19"/>
       <c r="O5" s="19"/>
       <c r="R5" s="16"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="39"/>
+      <c r="A6" s="37"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="32"/>
       <c r="N6" s="19"/>
       <c r="O6" s="19"/>
       <c r="R6" s="16"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="33"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="26"/>
       <c r="N7" s="19"/>
       <c r="O7" s="19"/>
       <c r="R7" s="16"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="39"/>
+      <c r="A8" s="37"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="32"/>
       <c r="N8" s="19"/>
       <c r="O8" s="19"/>
       <c r="R8" s="16"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="37"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="33"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="33"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="26"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="26"/>
       <c r="R9" s="16"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="39"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="39"/>
+      <c r="A10" s="37"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="32"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="32"/>
       <c r="R10" s="16"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="L11" s="37"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="33"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="26"/>
       <c r="O11" s="19"/>
       <c r="R11" s="16"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="39"/>
+      <c r="A12" s="35"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="32"/>
       <c r="O12" s="19"/>
       <c r="R12" s="16"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="37"/>
-      <c r="I13" s="33"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="33"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="26"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="26"/>
       <c r="R13" s="16"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="42"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="39"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="39"/>
+      <c r="A14" s="38"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="32"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="32"/>
       <c r="R14" s="16"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="K15" s="37"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="27"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="21"/>
       <c r="R15" s="16"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="39"/>
+      <c r="A16" s="37"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="32"/>
       <c r="R16" s="16"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="37"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
       <c r="J17" s="13"/>
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
       <c r="R17" s="16"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="36"/>
+      <c r="A18" s="35"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="29"/>
       <c r="K18" s="19"/>
       <c r="N18" s="19"/>
       <c r="O18" s="19"/>
       <c r="R18" s="16"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="N19" s="40"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
       <c r="O19" s="19"/>
       <c r="R19" s="16"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="22"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="32"/>
-      <c r="N20" s="32"/>
+      <c r="A20" s="35"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="29"/>
       <c r="O20" s="19"/>
       <c r="R20" s="16"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="31"/>
+      <c r="J21" s="25"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="4"/>
-      <c r="N21" s="29"/>
+      <c r="N21" s="23"/>
       <c r="O21" s="2"/>
       <c r="R21" s="16"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="34"/>
+      <c r="A22" s="35"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="27"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="36"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="29"/>
       <c r="R22" s="16"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="36" t="s">
         <v>21</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="4"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="33"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="26"/>
       <c r="R23" s="16"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
+      <c r="A24" s="35"/>
       <c r="J24" s="11"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="39"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="32"/>
       <c r="R24" s="16"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="36" t="s">
         <v>22</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
-      <c r="N25" s="30"/>
+      <c r="N25" s="24"/>
       <c r="O25" s="13"/>
       <c r="R25" s="16"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
+      <c r="A26" s="35"/>
       <c r="K26" s="11"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
@@ -1363,11 +1421,11 @@
       <c r="R26" s="16"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="36" t="s">
         <v>23</v>
       </c>
       <c r="I27" s="3"/>
-      <c r="J27" s="29"/>
+      <c r="J27" s="23"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
@@ -1378,7 +1436,7 @@
       <c r="R27" s="13"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
+      <c r="A28" s="35"/>
       <c r="B28" s="14"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
@@ -1386,39 +1444,53 @@
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="34"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="27"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
-      <c r="O28" s="36"/>
+      <c r="O28" s="29"/>
       <c r="P28" s="12"/>
       <c r="Q28" s="12"/>
       <c r="R28" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F1:Q1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A26"/>
-    <mergeCell ref="F1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>